--- a/app/assets/template.xlsx
+++ b/app/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/okamotoyuma/rails/abeaminvoice/app/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A657E6E7-F68D-3B4F-995C-580A41379E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648C5426-7D5B-8B4E-9055-06300FB7416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" xr2:uid="{4BBB74C6-76BD-4D40-98D3-DB9EE4230F98}"/>
   </bookViews>
@@ -620,7 +620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
@@ -708,9 +708,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -723,10 +720,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -736,9 +733,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,8 +1054,8 @@
   </sheetPr>
   <dimension ref="B4:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A15" zoomScale="60" zoomScaleNormal="75" zoomScalePageLayoutView="69" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="75" zoomScalePageLayoutView="69" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1084,25 +1078,19 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17">
-        <f ca="1">TODAY()</f>
-        <v>44899</v>
-      </c>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:6">
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="str">
-        <f ca="1">(TEXT(F5,"yyyymmdd"))</f>
-        <v>20221204</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="2:6">
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="2:6" ht="21" thickBot="1">
-      <c r="B8" s="39"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="15"/>
       <c r="F8" s="1"/>
     </row>
@@ -1137,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <f>F42</f>
         <v>0</v>
       </c>
@@ -1148,8 +1136,8 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="16">
-        <f ca="1">EOMONTH(F5,1)</f>
-        <v>44957</v>
+        <f>EOMONTH(F5,1)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="21" thickBot="1"/>
@@ -1157,7 +1145,7 @@
       <c r="B17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1175,7 +1163,7 @@
         <f>IF(D18=0,"",1)</f>
         <v/>
       </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
       <c r="F18" s="19" t="str">
@@ -1449,16 +1437,12 @@
     </row>
     <row r="43" spans="2:6" ht="21" thickBot="1">
       <c r="E43" s="14"/>
-      <c r="F43" s="35"/>
+      <c r="F43" s="34"/>
     </row>
     <row r="44" spans="2:6" ht="21" thickBot="1">
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="25"/>
@@ -1469,48 +1453,33 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
+      <c r="F46" s="29"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="28"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="28"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
+      <c r="C48" s="33"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="2:6" ht="21" thickBot="1">
-      <c r="B50" s="31"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="32"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="52" spans="2:6" ht="21" thickBot="1"/>
     <row r="53" spans="2:6" ht="21" thickBot="1">
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="25" t="s">
@@ -1522,11 +1491,11 @@
       <c r="F54" s="27"/>
     </row>
     <row r="55" spans="2:6" ht="21" thickBot="1">
-      <c r="B55" s="31"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="32"/>
+      <c r="F55" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
